--- a/data/trans_dic/P22$mutuaSPriv-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,41</t>
+          <t>2,76; 6,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,69</t>
+          <t>2,83; 7,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,05</t>
+          <t>4,68; 10,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,19</t>
+          <t>4,88; 9,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,28</t>
+          <t>3,27; 8,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 8,85</t>
+          <t>3,22; 8,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,9</t>
+          <t>4,4; 9,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,58</t>
+          <t>5,84; 10,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,95</t>
+          <t>3,55; 6,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,21</t>
+          <t>3,59; 7,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,05</t>
+          <t>5,13; 8,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 9,0</t>
+          <t>5,73; 8,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,11</t>
+          <t>2,79; 8,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,62</t>
+          <t>5,01; 10,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,28</t>
+          <t>4,82; 10,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,5</t>
+          <t>4,78; 9,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,37</t>
+          <t>1,12; 4,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,38</t>
+          <t>4,13; 10,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,68</t>
+          <t>1,82; 5,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,72</t>
+          <t>3,06; 6,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,41</t>
+          <t>2,34; 5,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,8</t>
+          <t>5,16; 9,6</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,36</t>
+          <t>3,92; 7,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,62</t>
+          <t>4,47; 7,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,66</t>
+          <t>0,16; 1,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,15</t>
+          <t>0,44; 2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,91</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,95</t>
+          <t>0,52; 5,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,63</t>
+          <t>0,78; 4,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,54</t>
+          <t>0,22; 2,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,87</t>
+          <t>0,37; 1,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,53</t>
+          <t>0,75; 2,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,53</t>
+          <t>0,14; 1,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,95</t>
+          <t>0,08; 0,9</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,09</t>
+          <t>0,74; 2,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,05</t>
+          <t>0,16; 0,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,03</t>
+          <t>0,1; 1,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,29</t>
+          <t>0,27; 1,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,45</t>
+          <t>0,55; 2,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,19</t>
+          <t>0,39; 2,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,39</t>
+          <t>0,15; 1,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,57</t>
+          <t>0,61; 2,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,9</t>
+          <t>0,85; 1,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,26</t>
+          <t>0,39; 1,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,89</t>
+          <t>0,21; 0,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,58</t>
+          <t>0,62; 1,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,55</t>
+          <t>0,53; 3,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,81</t>
+          <t>0,19; 1,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,48</t>
+          <t>0,16; 1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,8</t>
+          <t>0,17; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,06</t>
+          <t>0,88; 3,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,05</t>
+          <t>0,13; 1,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,95</t>
+          <t>0,16; 0,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,85</t>
+          <t>0,92; 2,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,1</t>
+          <t>0,23; 1,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,9</t>
+          <t>0,14; 0,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,96</t>
+          <t>0,24; 0,97</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,92</t>
+          <t>1,09; 5,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,97</t>
+          <t>0,37; 3,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,25; 13,47</t>
+          <t>2,29; 13,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,69</t>
+          <t>1,12; 2,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,61</t>
+          <t>0,35; 1,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,39</t>
+          <t>0,75; 2,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,44</t>
+          <t>0,96; 2,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,78</t>
+          <t>1,27; 2,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,95</t>
+          <t>0,63; 2,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,06</t>
+          <t>0,75; 2,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,33</t>
+          <t>1,61; 4,49</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,66</t>
+          <t>1,63; 2,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,8</t>
+          <t>1,72; 2,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,6</t>
+          <t>1,59; 2,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,49</t>
+          <t>2,03; 3,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,63</t>
+          <t>1,63; 2,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,49</t>
+          <t>1,4; 2,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,18</t>
+          <t>1,33; 2,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,86</t>
+          <t>1,85; 2,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,49</t>
+          <t>1,77; 2,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,47</t>
+          <t>1,72; 2,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,21</t>
+          <t>1,59; 2,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,99</t>
+          <t>2,06; 2,98</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Privado)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20627</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21178</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29866</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>34075</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16865</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17586</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35587</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>37491</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38764</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52983</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>69661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13017; 31411</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12364; 33523</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20068; 43170</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24647; 46928</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10016; 26004</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10139; 27188</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15267; 32658</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26126; 46264</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27670; 50745</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27010; 53757</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39808; 67442</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54549; 85320</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18046</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30937</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27274</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31705</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9025</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23385</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12765</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17643</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27071</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54322</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>40039</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>49348</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10255; 30277</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20987; 46034</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18127; 39797</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21633; 43854</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4150; 16036</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13949; 34890</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6761; 21588</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11719; 25877</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17297; 40476</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39082; 72630</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29326; 55460</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37299; 64927</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6688</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1856</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5994</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1568</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6186</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12682</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4081</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>860; 8316</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2787; 14929</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6725</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5532</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>872; 8555</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2034; 11990</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8066</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>373; 4519</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2647; 13596</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6677; 22371</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>960; 10406</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>696; 7502</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15853</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5667</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4820</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6478</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7988</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4793</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13713</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24845</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13655</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9613</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20191</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9080; 25544</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1868; 11472</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1125; 12120</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2751; 12904</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3958; 16942</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2975; 17066</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1198; 11147</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5969; 25921</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16491; 36843</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7597; 24457</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4227; 17618</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12515; 31078</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5379</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9813</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3115</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3726</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15192</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6926</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5675</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6617</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1850; 12379</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>983; 8963</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1002; 9024</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>807; 7981</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5028; 18028</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>981; 8443</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9030</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1377; 8055</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8487; 25176</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2908; 13966</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1904; 13241</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3105; 12773</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3246</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>14304</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22111</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8865</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14199</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11826</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15771</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17445</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26131</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2769; 12873</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2898; 14651</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1055; 8659</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5502; 33517</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>14007; 32355</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3925; 18297</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>8143; 24982</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7278; 18706</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19582; 41730</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8710; 27810</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>10209; 27852</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>16163; 45029</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69470</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>75186</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>70242</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>91099</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>69958</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>66933</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>59593</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>84062</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>139427</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>142119</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>129835</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>175161</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>53200; 88130</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>58737; 96637</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>53948; 88899</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>68374; 117040</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>54908; 86937</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>49815; 86621</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46890; 77253</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>66135; 102626</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>117329; 164332</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>119555; 169177</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>109833; 156386</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>143052; 207290</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P22$mutuaSPriv-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
